--- a/DATA SAMPLE/Upload Subject.xlsx
+++ b/DATA SAMPLE/Upload Subject.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Medi-Caps  AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0173A-37A7-4514-BD37-F23E08574F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BE2CD-2DEF-48D3-A6DE-E3EC6214E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>subject_name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>batch</t>
   </si>
   <si>
-    <t>CD1</t>
-  </si>
-  <si>
     <t>CB3CO01</t>
   </si>
   <si>
@@ -54,40 +51,31 @@
     <t>A</t>
   </si>
   <si>
-    <t>CD2</t>
-  </si>
-  <si>
     <t>CB3CO02</t>
   </si>
   <si>
-    <t>CD3</t>
-  </si>
-  <si>
     <t>CB3CO03</t>
   </si>
   <si>
-    <t>CD4</t>
-  </si>
-  <si>
     <t>CB3CO04</t>
   </si>
   <si>
-    <t>CD5</t>
-  </si>
-  <si>
     <t>CB3CO05</t>
   </si>
   <si>
-    <t>CD6</t>
-  </si>
-  <si>
-    <t>CB3CO06</t>
-  </si>
-  <si>
-    <t>CD7</t>
-  </si>
-  <si>
-    <t>CB3CO07</t>
+    <t>Compiler Design</t>
+  </si>
+  <si>
+    <t>UDSA</t>
+  </si>
+  <si>
+    <t>DSA</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Asthma</t>
   </si>
 </sst>
 </file>
@@ -411,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,121 +429,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA SAMPLE/Upload Subject.xlsx
+++ b/DATA SAMPLE/Upload Subject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Medi-Caps  AMS\DATA SAMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BE2CD-2DEF-48D3-A6DE-E3EC6214E677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6A9E6D-750B-4B0C-841F-0D600693736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>subject_name</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>Asthma</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>CB3CO07</t>
+  </si>
+  <si>
+    <t>CSE-NairSIR</t>
   </si>
 </sst>
 </file>
@@ -399,15 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -441,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -475,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -510,6 +540,125 @@
       </c>
       <c r="E6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA SAMPLE/Upload Subject.xlsx
+++ b/DATA SAMPLE/Upload Subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6A9E6D-750B-4B0C-841F-0D600693736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855E690-9CA5-41C6-9DFF-7C315F605284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>subject_name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>CSE-NairSIR</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +443,7 @@
     <col min="4" max="4" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +459,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -473,8 +479,11 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -488,10 +497,13 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -505,10 +517,13 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -522,10 +537,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -539,10 +557,38 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -558,8 +604,11 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -575,8 +624,11 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -592,8 +644,11 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -609,8 +664,11 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -626,8 +684,11 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -643,8 +704,16 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -659,6 +728,9 @@
       </c>
       <c r="E19" t="s">
         <v>17</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA SAMPLE/Upload Subject.xlsx
+++ b/DATA SAMPLE/Upload Subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8855E690-9CA5-41C6-9DFF-7C315F605284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF2FBD-2018-472C-B1E2-84702351FCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>subject_name</t>
   </si>
@@ -42,77 +42,35 @@
     <t>batch</t>
   </si>
   <si>
-    <t>CB3CO01</t>
-  </si>
-  <si>
     <t>CSE</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>CB3CO02</t>
-  </si>
-  <si>
-    <t>CB3CO03</t>
-  </si>
-  <si>
-    <t>CB3CO04</t>
-  </si>
-  <si>
-    <t>CB3CO05</t>
-  </si>
-  <si>
     <t>Compiler Design</t>
   </si>
   <si>
-    <t>UDSA</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>Flat</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Machine Learning</t>
-  </si>
-  <si>
-    <t>CB3CO07</t>
-  </si>
-  <si>
-    <t>CSE-NairSIR</t>
-  </si>
-  <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>CS3CO27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +83,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,281 +433,202 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>